--- a/SuSS/2023_Sem1_ANL252_Python_4_Biz/3_Lecturer/Lecture_0_Admin/Students_Zoom_Links_GBA_Groups.xlsx
+++ b/SuSS/2023_Sem1_ANL252_Python_4_Biz/3_Lecturer/Lecture_0_Admin/Students_Zoom_Links_GBA_Groups.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkumar\Documents\GitHub\munishkumar-gh.github.io\SuSS\2023_Sem1_ANL252_Python_4_Biz\3_Lecturer\Lecture_0_Admin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70312F80-1EB5-4634-98CE-4AFE8C7D10E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63430B4C-F9E5-4757-A011-166B618BF064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27624" yWindow="528" windowWidth="15168" windowHeight="11928" tabRatio="944" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4365" yWindow="1950" windowWidth="18660" windowHeight="11925" tabRatio="944" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Seminar_Schedule" sheetId="2" r:id="rId1"/>
@@ -585,7 +585,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -746,14 +746,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="39">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -966,6 +960,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1315,7 +1315,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1405,34 +1405,37 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1877,7 +1880,7 @@
   <dimension ref="A1:J44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1886,7 +1889,7 @@
     <col min="2" max="2" width="7.28515625" style="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.28515625" style="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5703125" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" style="15" hidden="1" customWidth="1"/>
     <col min="6" max="7" width="14.7109375" style="15" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.28515625" style="15" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="26" style="15" bestFit="1" customWidth="1"/>
@@ -2043,6 +2046,10 @@
       <c r="D7" s="19">
         <v>2</v>
       </c>
+      <c r="F7" s="41">
+        <v>1</v>
+      </c>
+      <c r="G7" s="41"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
@@ -2059,52 +2066,60 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="38" t="s">
+      <c r="A9" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="B9" s="39">
+      <c r="B9" s="38">
         <v>101652</v>
       </c>
-      <c r="C9" s="40" t="s">
+      <c r="C9" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="D9" s="40">
+      <c r="D9" s="39">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="B10" s="33">
+      <c r="B10" s="32">
         <v>54656</v>
       </c>
-      <c r="C10" s="34" t="s">
+      <c r="C10" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="D10" s="34">
+      <c r="D10" s="33">
         <v>3</v>
       </c>
       <c r="E10" s="15" t="s">
         <v>164</v>
       </c>
+      <c r="F10" s="41">
+        <v>5</v>
+      </c>
+      <c r="G10" s="41"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="B11" s="36">
+      <c r="B11" s="35">
         <v>100126</v>
       </c>
-      <c r="C11" s="37" t="s">
+      <c r="C11" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="D11" s="37">
+      <c r="D11" s="36">
         <v>3</v>
       </c>
       <c r="E11" s="15" t="s">
         <v>164</v>
       </c>
+      <c r="F11" s="41">
+        <v>2</v>
+      </c>
+      <c r="G11" s="41"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
@@ -2139,18 +2154,22 @@
       <c r="E13" s="15" t="s">
         <v>164</v>
       </c>
+      <c r="F13" s="41">
+        <v>5</v>
+      </c>
+      <c r="G13" s="41"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="B14" s="33">
+      <c r="B14" s="32">
         <v>53506</v>
       </c>
-      <c r="C14" s="34" t="s">
+      <c r="C14" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="D14" s="34">
+      <c r="D14" s="33">
         <v>4</v>
       </c>
       <c r="E14" s="15" t="s">
@@ -2175,23 +2194,23 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="35" t="s">
+      <c r="A16" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="B16" s="36">
+      <c r="B16" s="35">
         <v>49781</v>
       </c>
-      <c r="C16" s="37" t="s">
+      <c r="C16" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="D16" s="37">
+      <c r="D16" s="36">
         <v>4</v>
       </c>
       <c r="E16" s="15" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
         <v>78</v>
       </c>
@@ -2208,7 +2227,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="24" t="s">
         <v>76</v>
       </c>
@@ -2221,8 +2240,12 @@
       <c r="D18" s="22">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F18" s="41">
+        <v>5</v>
+      </c>
+      <c r="G18" s="41"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="21" t="s">
         <v>74</v>
       </c>
@@ -2235,11 +2258,12 @@
       <c r="D19" s="19">
         <v>5</v>
       </c>
-      <c r="F19" s="31">
+      <c r="F19" s="40">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19" s="40"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>72</v>
       </c>
@@ -2252,11 +2276,12 @@
       <c r="D20" s="19">
         <v>5</v>
       </c>
-      <c r="F20" s="31">
+      <c r="F20" s="40">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20" s="40"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
         <v>70</v>
       </c>
@@ -2270,7 +2295,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="24" t="s">
         <v>68</v>
       </c>
@@ -2283,25 +2308,26 @@
       <c r="D22" s="22">
         <v>6</v>
       </c>
-      <c r="F22" s="31">
+      <c r="F22" s="40">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="38" t="s">
+      <c r="G22" s="40"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="B23" s="39">
+      <c r="B23" s="38">
         <v>37748</v>
       </c>
-      <c r="C23" s="40" t="s">
+      <c r="C23" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="D23" s="40">
+      <c r="D23" s="39">
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="21" t="s">
         <v>64</v>
       </c>
@@ -2315,7 +2341,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
         <v>62</v>
       </c>
@@ -2328,8 +2354,12 @@
       <c r="D25" s="16">
         <v>6</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F25" s="41">
+        <v>5</v>
+      </c>
+      <c r="G25" s="41"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="24" t="s">
         <v>60</v>
       </c>
@@ -2343,7 +2373,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="21" t="s">
         <v>58</v>
       </c>
@@ -2357,7 +2387,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="21" t="s">
         <v>56</v>
       </c>
@@ -2370,11 +2400,12 @@
       <c r="D28" s="19">
         <v>7</v>
       </c>
-      <c r="F28" s="31">
+      <c r="F28" s="40">
         <v>5</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G28" s="40"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
         <v>54</v>
       </c>
@@ -2388,7 +2419,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="24" t="s">
         <v>52</v>
       </c>
@@ -2402,7 +2433,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="21" t="s">
         <v>50</v>
       </c>
@@ -2416,7 +2447,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="21" t="s">
         <v>48</v>
       </c>
@@ -2430,7 +2461,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="18" t="s">
         <v>46</v>
       </c>
@@ -2444,7 +2475,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="24" t="s">
         <v>44</v>
       </c>
@@ -2457,8 +2488,12 @@
       <c r="D34" s="22">
         <v>9</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F34" s="41">
+        <v>1</v>
+      </c>
+      <c r="G34" s="41"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="21" t="s">
         <v>42</v>
       </c>
@@ -2472,7 +2507,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="21" t="s">
         <v>40</v>
       </c>
@@ -2486,7 +2521,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="18" t="s">
         <v>38</v>
       </c>
@@ -2500,7 +2535,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="24" t="s">
         <v>36</v>
       </c>
@@ -2516,8 +2551,12 @@
       <c r="E38" s="15" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F38" s="41">
+        <v>1</v>
+      </c>
+      <c r="G38" s="41"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="21" t="s">
         <v>34</v>
       </c>
@@ -2534,7 +2573,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="21" t="s">
         <v>32</v>
       </c>
@@ -2551,7 +2590,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="18" t="s">
         <v>30</v>
       </c>
@@ -2568,7 +2607,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="24" t="s">
         <v>28</v>
       </c>
@@ -2581,11 +2620,12 @@
       <c r="D42" s="22">
         <v>11</v>
       </c>
-      <c r="F42" s="31">
+      <c r="F42" s="40">
         <v>5</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G42" s="40"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="21" t="s">
         <v>26</v>
       </c>
@@ -2599,7 +2639,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="18" t="s">
         <v>24</v>
       </c>
@@ -2612,8 +2652,28 @@
       <c r="D44" s="16">
         <v>11</v>
       </c>
+      <c r="F44" s="41">
+        <v>1</v>
+      </c>
+      <c r="G44" s="41"/>
     </row>
   </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F28:G28"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>

--- a/SuSS/2023_Sem1_ANL252_Python_4_Biz/3_Lecturer/Lecture_0_Admin/Students_Zoom_Links_GBA_Groups.xlsx
+++ b/SuSS/2023_Sem1_ANL252_Python_4_Biz/3_Lecturer/Lecture_0_Admin/Students_Zoom_Links_GBA_Groups.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkumar\Documents\GitHub\munishkumar-gh.github.io\SuSS\2023_Sem1_ANL252_Python_4_Biz\3_Lecturer\Lecture_0_Admin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63430B4C-F9E5-4757-A011-166B618BF064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E21E5DA-19BE-4982-BA24-EB18D3A89069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4365" yWindow="1950" windowWidth="18660" windowHeight="11925" tabRatio="944" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="944" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Seminar_Schedule" sheetId="2" r:id="rId1"/>
@@ -23,6 +23,9 @@
     <sheet name="Zoom_Links_Seminar_5" sheetId="8" r:id="rId8"/>
     <sheet name="Zoom_Links_Seminar_6" sheetId="9" r:id="rId9"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Student_Names_Sorted!$F$1:$F$44</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -747,7 +750,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -954,12 +957,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE9EDF4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1435,7 +1432,7 @@
     <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1877,10 +1874,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57A4BF7F-E252-4A20-A0EA-540678234DA0}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:J44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J39" sqref="J39"/>
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1991,7 +1989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
         <v>104</v>
       </c>
@@ -2004,8 +2002,14 @@
       <c r="D4" s="19">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F4" s="41">
+        <v>5</v>
+      </c>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+    </row>
+    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>102</v>
       </c>
@@ -2018,6 +2022,12 @@
       <c r="D5" s="16">
         <v>1</v>
       </c>
+      <c r="F5" s="41">
+        <v>3</v>
+      </c>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
@@ -2033,7 +2043,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
         <v>98</v>
       </c>
@@ -2050,6 +2060,8 @@
         <v>1</v>
       </c>
       <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
@@ -2079,7 +2091,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="31" t="s">
         <v>92</v>
       </c>
@@ -2095,12 +2107,14 @@
       <c r="E10" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="F10" s="41">
+      <c r="F10" s="40">
         <v>5</v>
       </c>
-      <c r="G10" s="41"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+    </row>
+    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="34" t="s">
         <v>90</v>
       </c>
@@ -2116,10 +2130,12 @@
       <c r="E11" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="F11" s="41">
+      <c r="F11" s="40">
         <v>2</v>
       </c>
-      <c r="G11" s="41"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
@@ -2138,7 +2154,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
         <v>86</v>
       </c>
@@ -2154,12 +2170,14 @@
       <c r="E13" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="F13" s="41">
+      <c r="F13" s="40">
         <v>5</v>
       </c>
-      <c r="G13" s="41"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+    </row>
+    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="31" t="s">
         <v>84</v>
       </c>
@@ -2175,6 +2193,12 @@
       <c r="E14" s="15" t="s">
         <v>164</v>
       </c>
+      <c r="F14" s="40">
+        <v>5</v>
+      </c>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="28" t="s">
@@ -2210,7 +2234,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
         <v>78</v>
       </c>
@@ -2227,7 +2251,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="24" t="s">
         <v>76</v>
       </c>
@@ -2240,12 +2264,14 @@
       <c r="D18" s="22">
         <v>5</v>
       </c>
-      <c r="F18" s="41">
+      <c r="F18" s="40">
         <v>5</v>
       </c>
-      <c r="G18" s="41"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+    </row>
+    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="21" t="s">
         <v>74</v>
       </c>
@@ -2262,8 +2288,10 @@
         <v>5</v>
       </c>
       <c r="G19" s="40"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
+    </row>
+    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>72</v>
       </c>
@@ -2280,8 +2308,10 @@
         <v>5</v>
       </c>
       <c r="G20" s="40"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+    </row>
+    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
         <v>70</v>
       </c>
@@ -2294,8 +2324,14 @@
       <c r="D21" s="16">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F21" s="41">
+        <v>1</v>
+      </c>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="41"/>
+    </row>
+    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="24" t="s">
         <v>68</v>
       </c>
@@ -2312,8 +2348,10 @@
         <v>5</v>
       </c>
       <c r="G22" s="40"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="37" t="s">
         <v>94</v>
       </c>
@@ -2327,7 +2365,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="21" t="s">
         <v>64</v>
       </c>
@@ -2340,8 +2378,14 @@
       <c r="D24" s="19">
         <v>6</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F24" s="40">
+        <v>5</v>
+      </c>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
+    </row>
+    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
         <v>62</v>
       </c>
@@ -2354,12 +2398,14 @@
       <c r="D25" s="16">
         <v>6</v>
       </c>
-      <c r="F25" s="41">
+      <c r="F25" s="40">
         <v>5</v>
       </c>
-      <c r="G25" s="41"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="40"/>
+    </row>
+    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="24" t="s">
         <v>60</v>
       </c>
@@ -2372,8 +2418,14 @@
       <c r="D26" s="22">
         <v>7</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F26" s="41">
+        <v>1</v>
+      </c>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="41"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="21" t="s">
         <v>58</v>
       </c>
@@ -2387,7 +2439,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="21" t="s">
         <v>56</v>
       </c>
@@ -2404,8 +2456,10 @@
         <v>5</v>
       </c>
       <c r="G28" s="40"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H28" s="40"/>
+      <c r="I28" s="40"/>
+    </row>
+    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
         <v>54</v>
       </c>
@@ -2418,8 +2472,14 @@
       <c r="D29" s="16">
         <v>7</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F29" s="41">
+        <v>1</v>
+      </c>
+      <c r="G29" s="41"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="41"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="24" t="s">
         <v>52</v>
       </c>
@@ -2433,7 +2493,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="21" t="s">
         <v>50</v>
       </c>
@@ -2446,8 +2506,14 @@
       <c r="D31" s="19">
         <v>8</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F31" s="41">
+        <v>3</v>
+      </c>
+      <c r="G31" s="41"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="41"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="21" t="s">
         <v>48</v>
       </c>
@@ -2461,7 +2527,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="18" t="s">
         <v>46</v>
       </c>
@@ -2475,7 +2541,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="24" t="s">
         <v>44</v>
       </c>
@@ -2488,12 +2554,14 @@
       <c r="D34" s="22">
         <v>9</v>
       </c>
-      <c r="F34" s="41">
-        <v>1</v>
-      </c>
-      <c r="G34" s="41"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F34" s="40">
+        <v>5</v>
+      </c>
+      <c r="G34" s="40"/>
+      <c r="H34" s="40"/>
+      <c r="I34" s="40"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="21" t="s">
         <v>42</v>
       </c>
@@ -2507,7 +2575,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="21" t="s">
         <v>40</v>
       </c>
@@ -2521,7 +2589,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="18" t="s">
         <v>38</v>
       </c>
@@ -2535,7 +2603,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="24" t="s">
         <v>36</v>
       </c>
@@ -2551,12 +2619,14 @@
       <c r="E38" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="F38" s="41">
+      <c r="F38" s="40">
         <v>1</v>
       </c>
-      <c r="G38" s="41"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G38" s="40"/>
+      <c r="H38" s="40"/>
+      <c r="I38" s="40"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="21" t="s">
         <v>34</v>
       </c>
@@ -2573,7 +2643,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="21" t="s">
         <v>32</v>
       </c>
@@ -2589,8 +2659,14 @@
       <c r="E40" s="15" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F40" s="40">
+        <v>5</v>
+      </c>
+      <c r="G40" s="40"/>
+      <c r="H40" s="40"/>
+      <c r="I40" s="40"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="18" t="s">
         <v>30</v>
       </c>
@@ -2607,7 +2683,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="24" t="s">
         <v>28</v>
       </c>
@@ -2624,8 +2700,10 @@
         <v>5</v>
       </c>
       <c r="G42" s="40"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H42" s="40"/>
+      <c r="I42" s="40"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="21" t="s">
         <v>26</v>
       </c>
@@ -2639,7 +2717,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="18" t="s">
         <v>24</v>
       </c>
@@ -2652,27 +2730,43 @@
       <c r="D44" s="16">
         <v>11</v>
       </c>
-      <c r="F44" s="41">
+      <c r="F44" s="40">
         <v>1</v>
       </c>
-      <c r="G44" s="41"/>
+      <c r="G44" s="40"/>
+      <c r="H44" s="40"/>
+      <c r="I44" s="40"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F28:G28"/>
+  <autoFilter ref="F1:F44" xr:uid="{57A4BF7F-E252-4A20-A0EA-540678234DA0}">
+    <filterColumn colId="0">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
+  <mergeCells count="23">
+    <mergeCell ref="F44:I44"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="F38:I38"/>
+    <mergeCell ref="F40:I40"/>
+    <mergeCell ref="F42:I42"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="F4:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/SuSS/2023_Sem1_ANL252_Python_4_Biz/3_Lecturer/Lecture_0_Admin/Students_Zoom_Links_GBA_Groups.xlsx
+++ b/SuSS/2023_Sem1_ANL252_Python_4_Biz/3_Lecturer/Lecture_0_Admin/Students_Zoom_Links_GBA_Groups.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkumar\Documents\GitHub\munishkumar-gh.github.io\SuSS\2023_Sem1_ANL252_Python_4_Biz\3_Lecturer\Lecture_0_Admin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63430B4C-F9E5-4757-A011-166B618BF064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4205C666-5791-4FF9-BFE1-E7FBD9B05998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4365" yWindow="1950" windowWidth="18660" windowHeight="11925" tabRatio="944" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="944" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Seminar_Schedule" sheetId="2" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="170">
   <si>
     <t>GBA Group</t>
   </si>
@@ -558,9 +558,6 @@
   </si>
   <si>
     <t>Withdrawn</t>
-  </si>
-  <si>
-    <t>ok</t>
   </si>
   <si>
     <t>Sem 1</t>
@@ -1315,7 +1312,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1423,19 +1420,22 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1877,10 +1877,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57A4BF7F-E252-4A20-A0EA-540678234DA0}">
-  <dimension ref="A1:J44"/>
+  <dimension ref="A1:J46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J39" sqref="J39"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1889,11 +1889,7 @@
     <col min="2" max="2" width="7.28515625" style="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.28515625" style="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5703125" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15" style="15" hidden="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26" style="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="10" width="7" style="15" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="25.140625" style="15" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="34.5703125" style="15" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="22.7109375" style="15" bestFit="1" customWidth="1"/>
@@ -1945,22 +1941,22 @@
         <v>0</v>
       </c>
       <c r="E1" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="F1" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="G1" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="H1" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="I1" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="J1" s="15" t="s">
         <v>169</v>
-      </c>
-      <c r="J1" s="15" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -2046,10 +2042,10 @@
       <c r="D7" s="19">
         <v>2</v>
       </c>
-      <c r="F7" s="41">
+      <c r="F7" s="37">
         <v>1</v>
       </c>
-      <c r="G7" s="41"/>
+      <c r="G7" s="37"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
@@ -2066,16 +2062,16 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="B9" s="38">
+      <c r="B9" s="41">
         <v>101652</v>
       </c>
-      <c r="C9" s="39" t="s">
+      <c r="C9" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="D9" s="39">
+      <c r="D9" s="42">
         <v>2</v>
       </c>
     </row>
@@ -2092,13 +2088,10 @@
       <c r="D10" s="33">
         <v>3</v>
       </c>
-      <c r="E10" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="F10" s="41">
+      <c r="F10" s="37">
         <v>5</v>
       </c>
-      <c r="G10" s="41"/>
+      <c r="G10" s="37"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="34" t="s">
@@ -2113,13 +2106,10 @@
       <c r="D11" s="36">
         <v>3</v>
       </c>
-      <c r="E11" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="F11" s="41">
+      <c r="F11" s="37">
         <v>2</v>
       </c>
-      <c r="G11" s="41"/>
+      <c r="G11" s="37"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
@@ -2134,9 +2124,6 @@
       <c r="D12" s="19">
         <v>3</v>
       </c>
-      <c r="E12" s="15" t="s">
-        <v>164</v>
-      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
@@ -2151,13 +2138,10 @@
       <c r="D13" s="16">
         <v>3</v>
       </c>
-      <c r="E13" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="F13" s="41">
+      <c r="F13" s="37">
         <v>5</v>
       </c>
-      <c r="G13" s="41"/>
+      <c r="G13" s="37"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="31" t="s">
@@ -2172,9 +2156,6 @@
       <c r="D14" s="33">
         <v>4</v>
       </c>
-      <c r="E14" s="15" t="s">
-        <v>164</v>
-      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="28" t="s">
@@ -2189,9 +2170,6 @@
       <c r="D15" s="30">
         <v>4</v>
       </c>
-      <c r="E15" s="15" t="s">
-        <v>163</v>
-      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="34" t="s">
@@ -2206,9 +2184,6 @@
       <c r="D16" s="36">
         <v>4</v>
       </c>
-      <c r="E16" s="15" t="s">
-        <v>164</v>
-      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
@@ -2223,9 +2198,6 @@
       <c r="D17" s="16">
         <v>4</v>
       </c>
-      <c r="E17" s="15" t="s">
-        <v>164</v>
-      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="24" t="s">
@@ -2240,10 +2212,13 @@
       <c r="D18" s="22">
         <v>5</v>
       </c>
-      <c r="F18" s="41">
+      <c r="E18" s="15">
+        <v>2</v>
+      </c>
+      <c r="F18" s="37">
         <v>5</v>
       </c>
-      <c r="G18" s="41"/>
+      <c r="G18" s="37"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="21" t="s">
@@ -2258,28 +2233,34 @@
       <c r="D19" s="19">
         <v>5</v>
       </c>
-      <c r="F19" s="40">
+      <c r="E19" s="15">
+        <v>2</v>
+      </c>
+      <c r="F19" s="38">
         <v>5</v>
       </c>
-      <c r="G19" s="40"/>
+      <c r="G19" s="38"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="B20" s="20">
+      <c r="B20" s="29">
         <v>85799</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="D20" s="19">
+      <c r="D20" s="30">
         <v>5</v>
       </c>
-      <c r="F20" s="40">
+      <c r="E20" s="15">
+        <v>2</v>
+      </c>
+      <c r="F20" s="38">
         <v>5</v>
       </c>
-      <c r="G20" s="40"/>
+      <c r="G20" s="38"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
@@ -2294,6 +2275,9 @@
       <c r="D21" s="16">
         <v>5</v>
       </c>
+      <c r="E21" s="15">
+        <v>2</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="24" t="s">
@@ -2308,23 +2292,29 @@
       <c r="D22" s="22">
         <v>6</v>
       </c>
-      <c r="F22" s="40">
+      <c r="E22" s="15">
+        <v>2</v>
+      </c>
+      <c r="F22" s="38">
         <v>5</v>
       </c>
-      <c r="G22" s="40"/>
+      <c r="G22" s="38"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="37" t="s">
+      <c r="A23" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="B23" s="38">
+      <c r="B23" s="41">
         <v>37748</v>
       </c>
-      <c r="C23" s="39" t="s">
+      <c r="C23" s="42" t="s">
         <v>93</v>
       </c>
-      <c r="D23" s="39">
+      <c r="D23" s="42">
         <v>6</v>
+      </c>
+      <c r="E23" s="15">
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -2340,6 +2330,9 @@
       <c r="D24" s="19">
         <v>6</v>
       </c>
+      <c r="E24" s="15">
+        <v>2</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
@@ -2354,10 +2347,13 @@
       <c r="D25" s="16">
         <v>6</v>
       </c>
-      <c r="F25" s="41">
+      <c r="E25" s="15">
+        <v>2</v>
+      </c>
+      <c r="F25" s="37">
         <v>5</v>
       </c>
-      <c r="G25" s="41"/>
+      <c r="G25" s="37"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="24" t="s">
@@ -2400,10 +2396,10 @@
       <c r="D28" s="19">
         <v>7</v>
       </c>
-      <c r="F28" s="40">
+      <c r="F28" s="38">
         <v>5</v>
       </c>
-      <c r="G28" s="40"/>
+      <c r="G28" s="38"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
@@ -2488,10 +2484,10 @@
       <c r="D34" s="22">
         <v>9</v>
       </c>
-      <c r="F34" s="41">
+      <c r="F34" s="37">
         <v>1</v>
       </c>
-      <c r="G34" s="41"/>
+      <c r="G34" s="37"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="21" t="s">
@@ -2548,13 +2544,10 @@
       <c r="D38" s="22">
         <v>10</v>
       </c>
-      <c r="E38" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="F38" s="41">
+      <c r="F38" s="37">
         <v>1</v>
       </c>
-      <c r="G38" s="41"/>
+      <c r="G38" s="37"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="21" t="s">
@@ -2569,9 +2562,6 @@
       <c r="D39" s="19">
         <v>10</v>
       </c>
-      <c r="E39" s="15" t="s">
-        <v>164</v>
-      </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="21" t="s">
@@ -2586,9 +2576,6 @@
       <c r="D40" s="19">
         <v>10</v>
       </c>
-      <c r="E40" s="15" t="s">
-        <v>164</v>
-      </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="18" t="s">
@@ -2603,9 +2590,6 @@
       <c r="D41" s="16">
         <v>10</v>
       </c>
-      <c r="E41" s="15" t="s">
-        <v>164</v>
-      </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="24" t="s">
@@ -2620,10 +2604,10 @@
       <c r="D42" s="22">
         <v>11</v>
       </c>
-      <c r="F42" s="40">
+      <c r="F42" s="38">
         <v>5</v>
       </c>
-      <c r="G42" s="40"/>
+      <c r="G42" s="38"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="21" t="s">
@@ -2652,10 +2636,15 @@
       <c r="D44" s="16">
         <v>11</v>
       </c>
-      <c r="F44" s="41">
+      <c r="F44" s="37">
         <v>1</v>
       </c>
-      <c r="G44" s="41"/>
+      <c r="G44" s="37"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="39" t="s">
+        <v>163</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="14">
